--- a/Test.xlsx
+++ b/Test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanne\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11BC1BC-2C55-4F2A-8186-7ABC6BFE55E9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B93072-94F0-47F6-B123-FE04492B1E3C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33390" yWindow="1035" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Stand</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -340,7 +351,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -374,8 +385,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
+      <c r="A3" t="s">
+        <v>1</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -394,8 +405,8 @@
       <c r="B4">
         <v>5</v>
       </c>
-      <c r="C4">
-        <v>2</v>
+      <c r="C4" t="s">
+        <v>0</v>
       </c>
       <c r="D4">
         <v>4</v>
